--- a/data/trans_dic/P78A_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Clase-trans_dic.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9516045809145455</v>
+        <v>0.9520809618602353</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.9742684787028103</v>
+        <v>0.9752809864943104</v>
       </c>
     </row>
     <row r="6">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9889532066383767</v>
+        <v>0.9889532066383766</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>1</v>
@@ -675,11 +675,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9590583713303763</v>
+        <v>0.96428694544475</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.9734452401371178</v>
+        <v>0.9699566589471164</v>
       </c>
     </row>
     <row r="12">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9837747980388626</v>
+        <v>0.9837747980388628</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.997122340659767</v>
+        <v>0.9971223406597671</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.9895533427109164</v>
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9590935444851287</v>
+        <v>0.9634152314474447</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9905319638299644</v>
+        <v>0.9908637784846883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9757429677998276</v>
+        <v>0.9760628780523443</v>
       </c>
     </row>
     <row r="15">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9945455107807027</v>
+        <v>0.9938843012974561</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9951720148538545</v>
+        <v>0.99564539280963</v>
       </c>
     </row>
     <row r="16">
@@ -764,13 +764,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9892328089918879</v>
+        <v>0.9892328089918877</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.9985159062040125</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9954723794308735</v>
+        <v>0.9954723794308733</v>
       </c>
     </row>
     <row r="17">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9710591432812128</v>
+        <v>0.9710425883046955</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9939925681354195</v>
+        <v>0.993349272368255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9889584412855884</v>
+        <v>0.9887340862860921</v>
       </c>
     </row>
     <row r="18">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9967404198313612</v>
+        <v>0.9967303521782503</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9988721151962663</v>
+        <v>0.9988268971481353</v>
       </c>
     </row>
     <row r="19">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1058401758461102</v>
+        <v>0.1058401758461103</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.3818549355678701</v>
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06356036355172791</v>
+        <v>0.05922522869472711</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3495327457088658</v>
+        <v>0.3511452914246312</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2961503722810399</v>
+        <v>0.293004090114617</v>
       </c>
     </row>
     <row r="21">
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1843263970433037</v>
+        <v>0.1759140545233856</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4108147385857924</v>
+        <v>0.4122689251385709</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3525635984605699</v>
+        <v>0.350150678814362</v>
       </c>
     </row>
     <row r="22">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8252492413861305</v>
+        <v>0.8259419746453042</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7427229528180427</v>
+        <v>0.7416544433602498</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7831285089935014</v>
+        <v>0.7818840495003141</v>
       </c>
     </row>
     <row r="24">
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8783376150388347</v>
+        <v>0.8793247505811502</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7788078859398574</v>
+        <v>0.7785191083549347</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8138849584669713</v>
+        <v>0.814976691850015</v>
       </c>
     </row>
     <row r="25">
@@ -1058,11 +1058,11 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>160802</v>
+        <v>160883</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>315445</v>
+        <v>315773</v>
       </c>
     </row>
     <row r="7">
@@ -1186,11 +1186,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>192947</v>
+        <v>193999</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>302839</v>
+        <v>301754</v>
       </c>
     </row>
     <row r="15">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>497752</v>
+        <v>499995</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>392465</v>
+        <v>392596</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>892998</v>
+        <v>893291</v>
       </c>
     </row>
     <row r="19">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>516151</v>
+        <v>515808</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>396216</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>910779</v>
+        <v>911213</v>
       </c>
     </row>
     <row r="20">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>252311</v>
+        <v>252307</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>529483</v>
+        <v>529140</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>783763</v>
+        <v>783586</v>
       </c>
     </row>
     <row r="23">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>258984</v>
+        <v>258981</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>532683</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>791620</v>
+        <v>791584</v>
       </c>
     </row>
     <row r="24">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15048</v>
+        <v>14021</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>294508</v>
+        <v>295866</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>319641</v>
+        <v>316245</v>
       </c>
     </row>
     <row r="27">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>43638</v>
+        <v>41647</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>346142</v>
+        <v>347367</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>380529</v>
+        <v>377924</v>
       </c>
     </row>
     <row r="28">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1277911</v>
+        <v>1278984</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1624488</v>
+        <v>1622151</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2925550</v>
+        <v>2920901</v>
       </c>
     </row>
     <row r="31">
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1360119</v>
+        <v>1361648</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1703413</v>
+        <v>1702782</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3040447</v>
+        <v>3044526</v>
       </c>
     </row>
     <row r="32">
